--- a/p_values_SVM_vs_Random_Forest.xlsx
+++ b/p_values_SVM_vs_Random_Forest.xlsx
@@ -7,7 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="accuracy" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sensitivity" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="specificity" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="time" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -447,7 +450,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.395112830634911e-12</v>
+        <v>4.179322006053345e-12</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +460,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.046767356868242e-12</v>
+        <v>5.034453876796671e-14</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +470,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.278224464838024e-11</v>
+        <v>1.795470359313073e-13</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +480,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.447708573455652e-13</v>
+        <v>8.271587852699883e-12</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +490,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.472949248996278e-13</v>
+        <v>2.728551622838897e-13</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +500,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2801093064198848</v>
+        <v>0.1545105697505873</v>
       </c>
     </row>
     <row r="8">
@@ -507,7 +510,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3495308060734571</v>
+        <v>0.3298768009211202</v>
       </c>
     </row>
     <row r="9">
@@ -517,7 +520,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6883708551552542</v>
+        <v>0.1741776365723292</v>
       </c>
     </row>
     <row r="10">
@@ -527,7 +530,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.245154495460575e-13</v>
+        <v>2.256776297838214e-12</v>
       </c>
     </row>
     <row r="11">
@@ -537,7 +540,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2321056409797995</v>
+        <v>0.8512337284789442</v>
       </c>
     </row>
     <row r="12">
@@ -547,7 +550,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4440561607749882</v>
+        <v>0.856662296977698</v>
       </c>
     </row>
     <row r="13">
@@ -557,7 +560,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.03979642068865268</v>
+        <v>0.6052961863744525</v>
       </c>
     </row>
     <row r="14">
@@ -567,7 +570,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1706083034697851</v>
+        <v>0.1979071130943485</v>
       </c>
     </row>
     <row r="15">
@@ -577,7 +580,487 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0002003579728687458</v>
+        <v>1.626574849687221e-05</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>p_value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>No Finding</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3.726854193838798e-16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Enlarged Cardiom.</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>9.903793940784228e-20</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Cardiomegaly</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>8.146212991058004e-20</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Lung Lesion</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2.629929979583514e-14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Lung Opacity</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2.856745082419526e-15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Edema</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.01322618586882433</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Consolidation</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Pneumonia</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Atelectasis</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5.60674856595587e-18</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Pneumothorax</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Pleural Effusion</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.002533371927511646</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Pleural Other</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Fracture</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.08816077423299451</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Support Devices</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>2.580147599191712e-12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>p_value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>No Finding</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2.331867389482067e-07</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Enlarged Cardiom.</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1.93405306355169e-06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Cardiomegaly</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2.055757253037176e-06</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Lung Lesion</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.2660194344503901</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Lung Opacity</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.166782748649044</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Edema</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Consolidation</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Pneumonia</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Atelectasis</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7.474849968821108e-10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Pneumothorax</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Pleural Effusion</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.02099420060405719</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Pleural Other</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Fracture</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.4289440579809215</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Support Devices</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.007360086319359622</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>p_value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>No Finding</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>4.11141865154624e-38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Enlarged Cardiom.</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>4.11141865154624e-38</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Cardiomegaly</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>4.11141865154624e-38</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Lung Lesion</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4.11141865154624e-38</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Lung Opacity</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>4.11141865154624e-38</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Edema</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>4.11141865154624e-38</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Consolidation</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>4.11141865154624e-38</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Pneumonia</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4.11141865154624e-38</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Atelectasis</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4.11141865154624e-38</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Pneumothorax</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4.11141865154624e-38</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Pleural Effusion</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>4.11141865154624e-38</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Pleural Other</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>4.11141865154624e-38</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Fracture</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>4.11141865154624e-38</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Support Devices</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>4.11141865154624e-38</v>
       </c>
     </row>
   </sheetData>
